--- a/docs/200.practice/150.demo/files/nop-demo.orm.v1.xlsx
+++ b/docs/200.practice/150.demo/files/nop-demo.orm.v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="140">
   <si>
     <t>#变量名</t>
   </si>
@@ -246,6 +246,9 @@
     <t>部门名称</t>
   </si>
   <si>
+    <t>parent</t>
+  </si>
+  <si>
     <t>PARENT_ID</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
   </si>
   <si>
     <t>属性名</t>
-  </si>
-  <si>
-    <t>parent</t>
   </si>
   <si>
     <t>关联属性名</t>
@@ -446,12 +446,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,17 +466,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -495,9 +497,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,38 +535,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,15 +565,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,23 +586,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,13 +605,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,31 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +697,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,25 +787,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,73 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,22 +967,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,11 +997,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,32 +1036,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,112 +1060,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1187,7 +1174,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,32 +1183,32 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,7 +1216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,10 +1240,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="14" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="14" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,32 +1300,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1668,151 +1643,151 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.8416666666667" style="35" customWidth="1"/>
-    <col min="2" max="2" width="31.4" style="35" customWidth="1"/>
-    <col min="3" max="3" width="44.1583333333333" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="10.125" style="35"/>
+    <col min="1" max="1" width="24.8416666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.4" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.1583333333333" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="1" spans="1:3">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="35" customFormat="1" ht="49.5" spans="1:3">
-      <c r="A2" s="37" t="s">
+    <row r="2" s="2" customFormat="1" ht="49.5" spans="1:3">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="35" customFormat="1" ht="66" spans="1:3">
-      <c r="A3" s="37" t="s">
+    <row r="3" s="2" customFormat="1" ht="66" spans="1:3">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="35" customFormat="1" ht="33" spans="1:3">
-      <c r="A4" s="37" t="s">
+    <row r="4" s="2" customFormat="1" ht="33" spans="1:3">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="1" spans="1:3">
-      <c r="A5" s="37" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="35" customFormat="1" spans="1:3">
-      <c r="A6" s="37" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="35" customFormat="1" spans="1:3">
-      <c r="A7" s="37" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="35" customFormat="1" spans="1:3">
-      <c r="A8" s="37" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="35" customFormat="1" spans="1:3">
-      <c r="A9" s="37" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="1" ht="33" spans="1:3">
-      <c r="A10" s="37" t="s">
+    <row r="10" s="2" customFormat="1" ht="33" spans="1:3">
+      <c r="A10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="35" customFormat="1" ht="13.5" customHeight="1" spans="1:3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" s="35" customFormat="1" spans="1:3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="13" s="35" customFormat="1" spans="1:3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-    </row>
-    <row r="14" s="35" customFormat="1" spans="1:3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-    </row>
-    <row r="15" s="35" customFormat="1" spans="1:3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" s="35" customFormat="1" spans="1:3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+    <row r="11" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1826,7 +1801,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1863,7 +1838,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="7">
-        <v>901</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>35</v>
@@ -1880,7 +1855,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A3" s="9">
-        <v>902</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>37</v>
@@ -1897,7 +1872,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7">
-        <v>903</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>38</v>
@@ -1912,7 +1887,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A5" s="9">
-        <v>904</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>40</v>
@@ -1927,7 +1902,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="11">
-        <v>905</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>41</v>
@@ -1942,7 +1917,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A7" s="9">
-        <v>906</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>43</v>
@@ -1969,7 +1944,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2220,7 +2195,7 @@
       <c r="I9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="21" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="20">
@@ -2237,14 +2212,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="30"/>
+      <c r="C10" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
@@ -2262,17 +2239,17 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="7">
-        <v>901</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>35</v>
@@ -2292,25 +2269,25 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="9">
-        <v>902</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
@@ -2326,17 +2303,17 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="7">
-        <v>903</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>38</v>
@@ -2345,7 +2322,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2356,19 +2333,19 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="9">
-        <v>904</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>40</v>
@@ -2377,7 +2354,7 @@
         <v>71</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2388,17 +2365,17 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="11">
-        <v>905</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>41</v>
@@ -2418,30 +2395,30 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="9">
-        <v>906</v>
+        <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2506,7 +2483,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2529,11 +2506,11 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2561,7 +2538,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2808,7 +2785,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3024,10 +3001,10 @@
         <v>113</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="20">
@@ -3056,10 +3033,10 @@
         <v>114</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="20">
@@ -3078,7 +3055,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="30"/>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -3086,8 +3063,8 @@
         <v>115</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="33" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="32" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="20">
@@ -3101,17 +3078,17 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="7">
-        <v>901</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>35</v>
@@ -3131,25 +3108,25 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="9">
-        <v>902</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
@@ -3165,17 +3142,17 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="7">
-        <v>903</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>38</v>
@@ -3184,7 +3161,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3195,19 +3172,19 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="9">
-        <v>904</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>40</v>
@@ -3216,7 +3193,7 @@
         <v>71</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -3227,17 +3204,17 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="11">
-        <v>905</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>41</v>
@@ -3257,30 +3234,30 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="9">
-        <v>906</v>
+        <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -3345,7 +3322,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3368,11 +3345,11 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3647,7 +3624,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3912,17 +3889,17 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A10" s="7">
-        <v>901</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>35</v>
@@ -3942,25 +3919,25 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="9">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>36</v>
@@ -3976,17 +3953,17 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="7">
-        <v>903</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>38</v>
@@ -3995,7 +3972,7 @@
         <v>71</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4006,19 +3983,19 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="9">
-        <v>904</v>
+        <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>40</v>
@@ -4027,7 +4004,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -4038,17 +4015,17 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="11">
-        <v>905</v>
+        <v>7</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>41</v>
@@ -4068,30 +4045,30 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A15" s="9">
-        <v>906</v>
+        <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -4180,7 +4157,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:F35"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4561,17 +4538,17 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="7">
-        <v>901</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>35</v>
@@ -4591,25 +4568,25 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A15" s="9">
-        <v>902</v>
+        <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>36</v>
@@ -4625,17 +4602,17 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="7">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
@@ -4644,7 +4621,7 @@
         <v>71</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -4655,19 +4632,19 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A17" s="9">
-        <v>904</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>40</v>
@@ -4676,7 +4653,7 @@
         <v>71</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -4687,17 +4664,17 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:16">
       <c r="A18" s="11">
-        <v>905</v>
+        <v>11</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>41</v>
@@ -4717,30 +4694,30 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A19" s="9">
-        <v>906</v>
+        <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -4805,7 +4782,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:16">
       <c r="A23" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4828,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
@@ -5042,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
@@ -5256,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">

--- a/docs/200.practice/150.demo/files/nop-demo.orm.v1.xlsx
+++ b/docs/200.practice/150.demo/files/nop-demo.orm.v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28503" windowHeight="12425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <t>seq</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>OID</t>
   </si>
   <si>
     <t>X</t>
@@ -348,7 +348,7 @@
     <t>parentId</t>
   </si>
   <si>
-    <t>id</t>
+    <t>oid</t>
   </si>
   <si>
     <t>org_unit_region</t>
@@ -446,10 +446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -466,16 +466,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,15 +520,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,37 +545,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,9 +565,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,26 +579,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,9 +595,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,24 +655,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -685,7 +667,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +727,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,37 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,25 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +805,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,11 +958,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,21 +988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1008,6 +999,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,176 +1055,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,15 +1641,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10.1260504201681" defaultRowHeight="14.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.8416666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.1583333333333" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.125" style="2"/>
+    <col min="1" max="1" width="24.8403361344538" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.4033613445378" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.1596638655462" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.1260504201681" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:3">
+    <row r="1" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="49.5" spans="1:3">
+    <row r="2" s="2" customFormat="1" ht="44.55" spans="1:3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="66" spans="1:3">
+    <row r="3" s="2" customFormat="1" ht="59.4" spans="1:3">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="33" spans="1:3">
+    <row r="4" s="2" customFormat="1" ht="29.7" spans="1:3">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
+    <row r="7" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="33" spans="1:3">
+    <row r="10" s="2" customFormat="1" ht="29.7" spans="1:3">
       <c r="A10" s="34" t="s">
         <v>25</v>
       </c>
@@ -1804,12 +1804,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1260504201681" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25210084033614" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1853,7 +1853,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.8" spans="1:7">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="14.8" spans="1:7">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="14.8" spans="1:7">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1944,16 +1944,16 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -2139,7 +2139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="14" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A14" s="9">
         <v>7</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="16" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A16" s="9">
         <v>9</v>
       </c>
@@ -2785,16 +2785,16 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -2980,7 +2980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="14" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A14" s="9">
         <v>7</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="16" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A16" s="9">
         <v>9</v>
       </c>
@@ -3624,16 +3624,16 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -3819,7 +3819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="9">
         <v>4</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="26"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="9">
         <v>6</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="15" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A15" s="9">
         <v>8</v>
       </c>
@@ -4157,16 +4157,16 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.2521008403361" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -4352,7 +4352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="14" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="15" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A15" s="9">
         <v>8</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="26"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="16" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4630,7 +4630,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="17" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A17" s="9">
         <v>10</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="27"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="19" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A19" s="9">
         <v>12</v>
       </c>
